--- a/9. Exam/정보보안기사/정보기.xlsx
+++ b/9. Exam/정보보안기사/정보기.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="11895"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>IP Spooping</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,264 @@
   </si>
   <si>
     <t>HTTP - 80 , DNS - 53 , TELNET - 20 , SMTP - 25 , TELNET - 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket() - TCP socket 생성 
+bind() - 소켓에 포트번호 부여 
+listen() - 클라이언트의 접속 기다림 
+accept() - 클라이언트 연결에 대한 새로운 소켓 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 운영체제(OS)탐지법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">telnet , IP port , ftp , nmap -v -O , TCP 초기 시퀀스 넘버 확인 , HTTP GET과 서버 포워드를 grep </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느린 전송 속도의 브리지, 허브의 단점을 개선하기 위해 출발지에서 들어온 프레임을 목적지 MAC 주소 기반으로 빠르게 포워드 시키는 Data Link Layer Inter-networking Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Media Access Control Address , 네트워크 세그먼트의 데이터 링크 계층에서 통신을 위한 네트워크 인터페이스에 할당된 고유 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 기능 - Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 기능 - Flooding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 기능 - Forwarding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 기능 - Filtering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 기능 - Aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지 주소가 MAC Table에 없으면 MAC 주소와 포트 저장 - MAC Table 기술연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지 주소가 MAC Table에 없으면 전체 포트에 전달 - Broadcasting 기술 연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지 주소가 MAC Table에 있으면 목적지 포트로만 전달 - Unicasting 기술 연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지가 목적지와 같은 세그먼트에 있는 경우에는 다른 세그먼트로 보내지 못하게 막음 - Collision Domain 기술 연관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC Table의 주소는 일정 시간이 지나면 삭제됨 - Aiging Timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 전송방식                         Cut-Through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 전송방식                         Store-And-Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치 전송방식                         Fragment Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치로 들어오는 frame의 목적지 주소만을 확인하고 바로 forwarding함.                                                     처리속도는 빠르지만 에러 감지가 어려움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치로 들어오는 천체 frame을 받아들이고 체크한 후에 forwarding함.                                                     처리속도가 느리지만 에러감지에 용이함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame 앞 64바이트만 읽어 에러를 처리하고 목적지 포트로 forwarding함.                                                     적당한 처리속도와 적당한 에러감지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유한 IP가 아닌 네트워크 내에서 자유롭게 할당해서 쓰는 IP주소 또는 IP 대역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Private IP - 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.0.0 ~ 10.255.255.255 (A 클래스 사설 IP 대역)                                                                     172.16.0.0 ~ 172.31.255.255(B 클래스 사설 IP 대역)                                                                    192.168.0.0 ~ 192.168.255.255(C 클래스 사설 IP 대역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 쉘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM                               (Enterprise Security Management)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽,침입 탐지 시스템, 침입 방지 시스템 등 각종 보안 시스템들의 로그들을 모아 한곳에서 통합 관리를 할 수 있게 해주는 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보안 장비에 탑재되어 수집된 데이터를 Manager 서버에 전달하고 통제를 받음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agent로부터 받은 이벤트를 분석·저장 후 Console로 그 내용을 통보</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager로부터 받은 데이터의 시각적 전달, 상황 판단 기능, 관리 서버의 룰을 설정하도록 지휘·통제</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 보안 장비별 구성 정보의 통합 데이터베이스 관리</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 원격 관리를 위한 SNMP, ICMP 등의 프로토콜</t>
+  </si>
+  <si>
+    <t>ESM -Agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM -Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM -Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM -Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM -Protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snort 기능 - Packet Sniffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snort 기능 - Packet Logger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snort 기능 - IDS/IPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 상의 패킷을 Sniffing 하여 보여주는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모니터링한 패킷을 저장하고 로그에 남기는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 트래픽을 분석해 공격을 탐지/차단하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1998년 SourceFire사의 CTO Martin Roesch에 의해 발표된 오픈소스 침입 탐지시스템(IDS)으로,      침입 탐지 시스템중 가장 널리 사용되며, 룰 헤더와 룰 옵션으로 구성된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snort - Rule Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert - 경고발생시킴 , log - 로그 기록 , pass - 패킷을 무시함 , active - alert를 발생시키고 대응하는 dynamic을 유효화 시킴 , dynamic - active에 의해 유효화 된 경우 한쪽의 패킷을 기록함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snort - Rule Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg - 지정한 메시지가 이벤트 명으로 사용됨                                                                       dsize - dsize:&lt;바이트 , dsize:바이트&lt;&gt;바이트 와 같이 상한선, 하한선, 범위 등을 지정할 수 있음    content - 문자,바이너리로 패턴을 탐지함.                                                                                        offset - 검색을 시작할 byte수를 지정함.                                                                                        depth - offset부터 시작하여 검색할 byte 수를 지정함.                                                                          nocase - 대소문자를 구별하지 않음.                                                                                        flags - TCP 제어 플래그를 지정함. F,S,FA,FSA등으로 지정 가능.                                                                                        pcre - 정규식을 사용함.                                                                                                          threshold - 패킷의 발생량을 기반으로 탐지함.                                                                            (공식적으로 사용 권장하지 않으며 비슷한 기능을 하는 detection_filter 사용이 권장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time To Live ( 패킷의 수명을 확인하는데 사용됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 네트워크 안에서 통신 데이터를 보낼 때 최적의 경로를 선택하는 프로세스를 말함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 네트워크에서 목적지 주소를 목적지에 도달하기 위한 네트워크 노선으로 변환시키는 목적으로 사용됨 각 라우터의 라우팅 테이블은 모든 목적지 정보에 대해 해당 목적지에 도달하기 위해서 거쳐야 할 다음 라우터의 정보를 담고 있음. // 쉽게말해서 라우팅에 대한 규칙을 정의하는 것임.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅 테이블을 갱신하고 , 실제로 라우팅을 수행하기 위한 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 라우팅 프로토콜(IGP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 라우팅 프로토콜(EGP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interior Gateway Protocol - RIP , OSPF , EIGRP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exterior Gateway Protocol - EGP , BGP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +575,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -341,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +613,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,10 +922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -947,6 +1218,267 @@
         <v>69</v>
       </c>
     </row>
+    <row r="37" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,6 +1488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -969,6 +1502,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/9. Exam/정보보안기사/정보기.xlsx
+++ b/9. Exam/정보보안기사/정보기.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>IP Spooping</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,208 @@
   </si>
   <si>
     <t>Exterior Gateway Protocol - EGP , BGP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTM                                    (Unified Threat Management)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합보안시스템,통합위협관리시스템 등으로 불림. 방화벽,침입 탐지.방지 시스템, 백신,가상 사설망 등 다양한 보안장비를 하나의 장비로 통합한것으로 실무적으로 흔히 IPS,IDS와 방화벽이 결합된    형태를 말함. 경제성이 있고 보안관리가 편해지지만 장애 발생시 보안기능에 심각한 영향을 미침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS                               (Intrusion Detection System)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPS                               (Intrusion Prevention System)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 또는 호스트로의 비정상적인 접근을 탐지하는 시스템. 긍정오류와 부정오류가 존재하며  오탐(False Positive) : 정상접근을 비정상접근으로 인식,                                                                   미탐(False Negative) : 비정상접근을 정상접근으로 판단 할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 또는 호스트로의 비정상적인 접근을 탐지하고 자동으로 차단하는 시스템.                              기본적으로 IDS와 동일하나 차단 시스템이 추가된것과 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 실행 4단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 데이터 수집(Raw Data Collection)
+2. 데이터 가공 및 축약(Data Reduction and Filtering)
+3. 침입 분석 및 탐지(Intrusion Analysis and Detection)
+4. 보고 및 대응(Reporting and Response)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 탐지 방법에 의한 분류                  - 지식기반 침입탐지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 탐지 방법에 의한 분류                  - 행위기반 침입탐지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge-based Detection, Misuse-Detection 이라고 하며 비정상 행위에 대한 패턴을 입력하여 일치하는 패턴을 탐지함. 전문가 시스템, 상태전이 모델, 패턴매칭, 페트리넷  등이 있음.                      장단점으로는 오탐률이 낮고 새로운 패턴은 탐지가 불가하며 속도가 느림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anomaly Detection, 이상탐지라고 하며 정상 행위와 비정상 행위를 프로파일링 하여 통계 및 AI를 이용하여 정상/비정상 구분. 통계적 분석,예측가능한패턴생성,신경망 모델, 전무간 시스템, 데이터 마이닝 등에 쓰이며 장단점으로는 패턴 자동 업데이트, 새로운패턴(제로데이 공격 등)을 탐지 가능하고, 오탐률이 높고 정상/비정상 기준 수립이 힘들다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 데이터 수집원에 의한 분류   - 네트워크 기반 IDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 데이터 수집원에 의한 분류   - 호스트 기반 IDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPA                               (Wi-fi Prorected Access)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이파이 얼라이언스가 책정하고 네트워크 장비가 준수해야 하는 보안 프로토콜로 WPA,WPA2가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 : RC4 , 인증 : WEP-OpenWEB-Shared , 키관리 : none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 : TKIP+RC4 , 인증 : WPA-PSK/Enterprise , 키관리 : 4 Way-Handshake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 : CCMP/AES , 인증 : WPA2-Personal/Enterprise , 키관리 : 4Way-Handshake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화 : GCMP-256 , 인증 : WPA3-Personal/Enterprise , 키관리 : ECDH/ECDSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터널링, 암호화 및 인증 , 접근제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN 구현기술                              (Virtual Pravate Network)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual LAN OSI 모델 데이터 링크 계층에서 스위치를 이용해 브로드캐스트 도메인을 나누기 위한 기술. VLAN 태그가 상이한 네트워크간의 접속을 근본적으로 차단하여 보안성을 강화, VLAN으로 구성된 논리적 그룹에 대하여 서로 다른 보안정책을 적용할 수 있다. VLAN별 QoS를 적용함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Persistent Threat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션하이재킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP스푸핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP스푸핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스니핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+시스템에 접근할 적법한 사용자 아이디와 패스워드를 모를 경우 공격 대상이 이미 시스템에 접속되어 세션이 연결되어 있는 상태를 가로채는 공격
+아이디와 패스워드를 몰라도 시스템에 접근하여 자원이나 데이터를 사용 가능
+인증 작업이 완료된 세션을 공격하기 때문에 OTP, Challenge/Response 기법을 사용하는 사용자 인증을 무력화시킴
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 IP 패킷을 만들어 마치 다른 호스트인 것처럼 가장하는 방법을 이용하는 공격의 총칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크상에 흘러다니는 트래픽을 훔쳐보는 행위. 주로 자신에게 와야할 정보가 아닌 정보를 자신이 받도록 조작하는 행위를 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬에서 통신하고 있는 서버와 클라이언트의 MAC 주소를 공격자의 MAC 주소로 속인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT                                   Network Address Translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사설 IP주소를 공인 IP로 변환시켜 사용하는 방식. 보유하고 있는 IP주소가 부족할 경우, 사설 IP     주소를 사용하여 IP주소를 확장하기 위한 방법으로 활용할 수 있으며 내부 네트워크 주소를             드러내지 않아 보안성을 노릴 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 내부 IP 주소에 대해 외부 IP주소가 1:1로 각각 대응된다.
+IP 주소 절감 효과는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 개의 내부 IP 주소에 대해 여러 개의 외부 IP주소를 동적으로 할당시킨다.
+IP 주소를 절감할 수 있으며 보안 측면에서 장점이 있다.
+외부 IP주소가 모두 사용 중이라 할당 받을 IP가 없을 경우 외부에서의 연결은 제한된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL을 이용하여, 출발지와 목적지에 따라 주소를 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT에 해당하지 않는 패킷은 그냥 라우팅 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1477,6 +1679,200 @@
       </c>
       <c r="B69" s="2" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/9. Exam/정보보안기사/정보기.xlsx
+++ b/9. Exam/정보보안기사/정보기.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>IP Spooping</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격자가 자신이 전송하는 패킷에 다른 호스트 IP 주소를 담아서 전송하는 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스위치 재밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCP header 내에 flag 값을 모두 설정하거나 일부 값을 설정하여 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Open 스캔과 대비하여 Half-Open Scan이라고 부름.                                                             .    SYN을 보내 SYN+ACK이 오면 열린것으로 판단, RST 패킷을 보내 접속을 끊어버림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +275,6 @@
   </si>
   <si>
     <t>IPSec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NetWork Layer 에서 동작하는 보안 메커니즘.                                                                     ESP - 헤더의 기밀성을 제공하기 위해 사용                                                                                 AH프로토콜 - 메시지의 인증과 무결성을 위해 사용                                                                       IKE프로토콜 - SA를 협의하기위해 사용                                                                                 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어떤 네트워크 안에서 통신 데이터를 보낼 때 최적의 경로를 선택하는 프로세스를 말함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라우팅 테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,10 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Advanced Persistent Threat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세션하이재킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,69 +672,319 @@
   </si>
   <si>
     <t>스니핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 IP 패킷을 만들어 마치 다른 호스트인 것처럼 가장하는 방법을 이용하는 공격의 총칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크상에 흘러다니는 트래픽을 훔쳐보는 행위. 주로 자신에게 와야할 정보가 아닌 정보를 자신이 받도록 조작하는 행위를 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT                                   Network Address Translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사설 IP주소를 공인 IP로 변환시켜 사용하는 방식. 보유하고 있는 IP주소가 부족할 경우, 사설 IP     주소를 사용하여 IP주소를 확장하기 위한 방법으로 활용할 수 있으며 내부 네트워크 주소를             드러내지 않아 보안성을 노릴 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bypass NAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 내부 IP 주소에 대해 외부 IP주소가 1:1로 각각 대응된다.
+IP 주소 절감 효과는 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 개의 내부 IP 주소에 대해 여러 개의 외부 IP주소를 동적으로 할당시킨다.
+IP 주소를 절감할 수 있으며 보안 측면에서 장점이 있다.
+외부 IP주소가 모두 사용 중이라 할당 받을 IP가 없을 경우 외부에서의 연결은 제한된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL을 이용하여, 출발지와 목적지에 따라 주소를 변환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAT에 해당하지 않는 패킷은 그냥 라우팅 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 토폴로지-BUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 토폴로지-Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 토폴로지-Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 토폴로지-Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 토폴로지Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 케이블레 분기를 만들어 각 노드에 연결, 시그널의 반사를 방지하기 위해 터미네이터 사용, 확장시 네트워크 전체를 중지시켜야하며 케이블이 문제를 일으켰을 시 위치확인 어려움. 비용 저렴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스의 양 끝을 붙인 형태의 네트워크 형식, 한쪽 방향 데이터전송 , 가까운 거리 내의 검퓨터를 연결할때 사용, 모든 노드는 케이블의 폐곡선 내예 연결됨. 버스와 마찬가지로 선을 끊어 추가로 연결, 네트워크가 설치되는 공간이 작을수록 적은 비용이 듬.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙의 Hub를 통해 연결되며 허브를 중심으로 100m 이내에 노드들이 존재해야 함.                      허브의 포트가 허용하는 한 간단히 확장 가능하고 네트워크상 노드에 문제가 생겨도 전체네트워크에는 영향이 없음. 인스톨 및 재구성이 용이함. 각 장비는 단 하나의 링크와 I/O 포트를 가짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 장비가 자신을 제외한 모든 다른 장비와 전용 링크를 가짐. 완전 연결 메시 네트워크는 n개의 노드에 대해 n(n-1)/2 개의 물리 체널을 가짐. 전용 링크를 사용함으로써 고장에 견고하며 보안성이 높음. 설치 및 재조정이 어려우며 하드웨어 포트와 케이블이 많이 필요하고 케이블 포설이 이용공간보다 커질 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통 공중 데이터통신 네트워크에서 주로 사용되며 통신 회선의 총 경로가 다른 네트워크에 비해 가장 김. Node의 연결성이 높고 많은 단말기로부터 많은양의 통신을 필요로 할 경우에 유리하나 비쌈.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables 명령 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-A : 새로운 규칙을 추가한다. 
+-D : 규칙을 삭제한다. 
+-C : 패킷을 테스트한다. 
+-I : 새로운 규칙을 삽입한다. 
+-R : 새로운 규칙으로 교체한다. 
+-L : 새로운 규칙을 출력한다. 
+-F : 체인의 모든 규칙을 삭제한다. 
+-Z : 모든 체인의 패킷과 바이트 카운터 값을 0으로 만든다. 
+-N : 새로운 체인을 만든다. 
+-X : 체인을 삭제한다. 
+-P : 기본 정책을 변경한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIEM                                (Security Information &amp; Event Management)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM의 진화된 형태로 네트워크 하드웨어 및 응용 프로그램에 의해 생성 된 보안 경고의 실시간 분석 제공, SPLUNK, QRadar, Arcsight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅 프로토콜(IGP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅 프로토콜(EGP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIP - Hop 기준으로 최대 15홉까지 지원, 30초마다 모든 라우터에 정보 업데이트, 거리벡터 프로토콜, 최단경로 탐색 : Bellman-Ford 알고리즘                                                                                    OSPF - Hop을 기준으로하나 Hop수에 제한없어 큰 망에서 사용 가능. 변경된 정보가 있을때에만 브로드캐스팅 함. 최단경로 탐색 : 다익스트라다 알고리즘                                                                       EIGRP - 거리벡터 방식과 링크 상태 방식 두가지 특징을 모두 가진 하이브리드형 IGP                     최단경로 탐색 : DUAL 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGP - 분류명이기도 하며 실제 EGP라는 프로토콜이 있었으나 현재 사용 안함.                                             BGP - EGP보다 한층 업그레이드 된 외부 라우팅 프로토콜. 초기 연결시 전체 경로 테이블 교환, 이후 변동 내역이 있을때만 변동내역 교환.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced Persistent Threat, 특정 목표 대상에 대해 취약점을 파악하고 지속적으로 다양한 방법을 이용하여 공격하는 방법, 절차로는 침투-탐색-수집-공격-유출 이며, 워터링 홀, 사이버 킬 체인 등이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drive-by Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워터링 홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜섬웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 특정 웹사이트에 접속하였을 때(이메일 메세지에 포함된 사이트 주소를 클릭하는 경우 포함), 사용자도 모르게, 악성 SW가 사용자의 디바이스(PC나 스마트폰)에 download 되도록 하는 해킹기법을 의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격자가 표적에 대한 정보를 수집, 주로 방문하는 웹사이트 파악해 해당 웹사이트의 보안 취약점 또는 제로데이 취약점을 이용해 피해자를 감염시켜 자바스크림트나 HTML등을 삽입해 피해자를 다른 사이트로 리다이렉트 함, 또는 1차적으로 웹사이트를 먼저 공격해 감염시킨 뒤, 이를 통한 공격 대상의 2차적 감염을 노림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸값을 뜻하는 ransom, 제품을 뜻하는 ware의 합성어, 사용자의 동의없이 컴퓨터에 설치하고 사용자의 파일을 모두 암호화하여 인질로 잡아 금전적인 행위를 하는 악성 프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NetWork Layer 에서 동작하는 보안 메커니즘.                                                                     ESP - 헤더의 기밀성을 제공하기 위해 사용                                                                                 AH프로토콜 - 메시지의 인증과 무결성을 위해 사용                                                                       IKE프로토콜 - SA를 협의하기위해 사용                                                                                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 네트워크 안에서 통신 데이터를 보낼 때 최적의 경로를 선택하는 프로세스를 말함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 개의 포트를 가지고 있으며, 들어온 데이터를 그대로 재전송하는 단순한 장비, OSI참조 모델의 물리계층에서 동작하는 장비로 IEEE802.3과 이더넷에서 이더넷 멀티포터 리피터 또는 연결집중장치 라고도 칭함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중계기. 데이터를 전송할 때 신호 감쇄에 의한 데이터 손실을 방지하기 위해 중간에서 데이터를 증폭시켜 더 강한 신호로 만들어 주는 장비. OSI모델 1계층에서 작동함. 네트워크 카드 사이의 거리가 멀 때 중간에 설치. 무한정 신호를 멀리 보낼 수 있는것은 아니며 외부 간섭에 의해 데이터가 변질될 우려가 있어 일반적으로 최대 4개의 리피터 설치가 권장됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 공격의 일종으로 해커가 원격에서 웹 서버를 조종할 수 있도록 제작한 웹서버용 악성코드로 ASP,JSP,PHP,CGI등으로 작성하여 웹 서버가 가지고 있는 취약점을 악용해 웹쉘을 업로드시켜 웹서버를 해킹하는데 이용하거나, 해킹한 웹 서버를 관리하기 위한 목적으로 설치.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDoS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed(분산)다수의 PC를 동원하여 서비스에 접근, 공격자,명령제어,좀비PC,공격대상으로 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denial of Service , 대상 시스템이 정상적인 서비스를 할 수 없도록 가용성을 떨어트리는 공격. 네트워크자원(대역폭)소진,시스템 자원(CPU,메모리,디스크자원등)에 부하 발생.자원 파괴등을 수행.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS공격-Ping Of Death Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS공격-Land Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS공격-Smurf Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS공격-Teardrop Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS공격-SYN Flooding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMP 패킷을 아주크게 만들어 전송, IP fragment 발생시켜 부하를 일으킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지와 목적지가 같은 패킷을 만들어 공격 대상이 자기 자신에게 응답하도록 해 부하 유발.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지를 공격대상 IP로 위조한 ICMP 패킷을 브로드캐스트 하여  공격 대상이 다수의 ICMP 응답을 받게 하여 부하를 일으킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 IP 패킷이 분할된 IP Fragment의 offset값을 서로 중첩되도록 조작하여 이를 재조합하는 공격 대상의 시스템에 에러와 부하를 유발함. 유사한 공격으로 Bonk, Boink가 있으며 Bonk는 순서번호가 1번인 단편을 계속해서 보냄. Boink는 처음에는 정상적인 순서의 단편을 보내다가 점점 순서번호가 어긋난 패킷을 보내는 방법으로, Bonk보다 개선된 방식.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoS공격-UDP Flooding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다량의 TCP SYN 패킷을 전송하여 공격대상 시스템을 마비시키는 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다량의 UDP 패킷을 전송하여 네트워크 자원을 고갈시키는 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acknowledgment, 승인의 약자로 다른 컴퓨터나 네트워크 장치가 다른 컴퓨터에 SYN/ACK 또는 다른 요청을 보낸것을 확인한 응답을 나타냄.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synchronize,'동시에 발생하다,동기화' 다른 컴퓨터로 전송된 TCP 패킷으로 연결이 이루어지도록 요청. SYN이 두 번째 시스템에서 수신되면 SYN/ACK이 요청한 주소로 다시 전송됨. 원래 컴퓨터가 SYN/ACK를 수신하면 최종 ACK가 전송됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP header 내에 flag 값을 모두 설정하거나 일부 값을 설정하여 전송, 응답 없을시 열려있다고 판단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 시스템에 접근할 적법한 사용자 아이디와 패스워드를 모를 경우 공격 대상이 이미 시스템에 접속되어 세션이 연결되어 있는 상태를 가로채는 공격
 아이디와 패스워드를 몰라도 시스템에 접근하여 자원이나 데이터를 사용 가능
-인증 작업이 완료된 세션을 공격하기 때문에 OTP, Challenge/Response 기법을 사용하는 사용자 인증을 무력화시킴
+인증 작업이 완료된 세션을 공격하기 때문에 OTP, Challenge/Response 기법을 사용하는 사용자 인증을 무력화시킴, 시퀀스 넘버를 추측하여 공격할 수 있음
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가짜 IP 패킷을 만들어 마치 다른 호스트인 것처럼 가장하는 방법을 이용하는 공격의 총칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크상에 흘러다니는 트래픽을 훔쳐보는 행위. 주로 자신에게 와야할 정보가 아닌 정보를 자신이 받도록 조작하는 행위를 말한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로컬에서 통신하고 있는 서버와 클라이언트의 MAC 주소를 공격자의 MAC 주소로 속인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAT                                   Network Address Translation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사설 IP주소를 공인 IP로 변환시켜 사용하는 방식. 보유하고 있는 IP주소가 부족할 경우, 사설 IP     주소를 사용하여 IP주소를 확장하기 위한 방법으로 활용할 수 있으며 내부 네트워크 주소를             드러내지 않아 보안성을 노릴 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Static NAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dynamic NAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Policy NAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bypass NAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 내부 IP 주소에 대해 외부 IP주소가 1:1로 각각 대응된다.
-IP 주소 절감 효과는 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러 개의 내부 IP 주소에 대해 여러 개의 외부 IP주소를 동적으로 할당시킨다.
-IP 주소를 절감할 수 있으며 보안 측면에서 장점이 있다.
-외부 IP주소가 모두 사용 중이라 할당 받을 IP가 없을 경우 외부에서의 연결은 제한된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACL을 이용하여, 출발지와 목적지에 따라 주소를 변환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAT에 해당하지 않는 패킷은 그냥 라우팅 한다.</t>
+    <t>DRDoS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed Reflection Denial of Service, 취약점이 있는 외부의 정상적인 서버들을 이용하여 공격을 수행하는 분산 서비스 거부 공격, 출발지의 IP를 위조하여 정상요청(Request)하면 공격 대상에 대량의 응답 값이 전달되는 것을 이용한 공격 방법으로, DDoS의 에어전트 설치의 어려움을 보완한 공격으로 TCP 프로토콜 및 라우팅 테이블 운영상의 취약성을 이용한 공격으로 정상적인 서비스를 제공중인 서버 Agent를 활용하는 공격 기법. 클라이언트의 특성상 외부 인터넷 서버 접속이 잦아 클라이언트의 보호는 사실상 어려움.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가짜 IP 패킷을 만들어 마치 다른 호스트인것 처럼 가장하는 방법을 이용한 공격의 총칭.공격자가 자신이 전송하는 패킷에 다른 호스트 IP 주소를 담아서 전송하는 공격, 이를 통해 서비스거부공격(DoS) 나 Sniffing,스팸메일 등을 발송하는 공격을 시행함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Internet Control Message Protocol, RFC 792 , 인터넷 프로토콜의 비신뢰적인 특성을 보완하기 위한 프로토콜로 IP 패킷 전송 중 에러 발생 시 에러 발생 원인을 알려주거나 네트워크 상태를 진단해주는 기능을 제공함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP Redirect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위칭 환경에서 스니핑 공격 유형 중 공격자가 "나의 MAC 주소가 라우터의 MAC 주소이다"라는 위조된 ARP Reply를 브로드캐스트로 네트웨크에 주기적으로 보내어 스위칭 네트워크상의 다른 모든 호스트들이 공격자 호스트를 라우터로 믿게 하는 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬에서 통신하고 있는 서버와 클라이언트 IP 주소에 대한 2계층 MAC주소를 공격자의 MAC 주소로 속여 클라이언트가 서버로 가는 패킷이나 서버에서 클라이언트로 가는 패킷을 중간에서 가로채는 공격을 말함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +1051,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1125,10 +1358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1146,456 +1379,459 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>115</v>
@@ -1603,276 +1839,492 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="2" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>182</v>
+      <c r="B105" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/9. Exam/정보보안기사/정보기.xlsx
+++ b/9. Exam/정보보안기사/정보기.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>IP Spooping</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCP 헤더 연결을 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수신된 데이터 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TCP 헤더 Flag의 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,22 +87,6 @@
   </si>
   <si>
     <t>TCP 헤더 Flag -FIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류에 대한 응답으로 연결을 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결을 닫기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP 헤더 Flag -urg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -904,10 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICMP 패킷을 아주크게 만들어 전송, IP fragment 발생시켜 부하를 일으킴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출발지와 목적지가 같은 패킷을 만들어 공격 대상이 자기 자신에게 응답하도록 해 부하 유발.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -985,6 +957,102 @@
   </si>
   <si>
     <t>로컬에서 통신하고 있는 서버와 클라이언트 IP 주소에 대한 2계층 MAC주소를 공격자의 MAC 주소로 속여 클라이언트가 서버로 가는 패킷이나 서버에서 클라이언트로 가는 패킷을 중간에서 가로채는 공격을 말함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Datagram Protocol, 컴퓨터가 다른 컴퓨터와 데이터 통신을 하기 위한 규약(프로토콜)의 일종으로 OSI 4계층인 전송계층(Transport Layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP 헤더 Flag -URG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acknowledgement, 확인을 나타내는 플래그, 앞서 받은 패킷과 관련하여 확인하였음을 의미. SYN 세그먼트 전송 이후(TCP 연결 시작 후) 모든 세그먼트에는 항상 이 비트가 1로 셋팅됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urgent, 긴급함을 알리는 플래그,거의사용X 송신측 상위계층이 긴급데이터라고 알려주면 긴급비트 URG를 1로 설정하고 순서에 상관없이 먼저 송신됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push, 버퍼를 모두 채우지 않고 바로 발송하라는 플래그, 때로는 서버측에서 더 이상 전송할 데이터가 없음을 나타내기도 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset, 강제 연결 초기화 플래그, 연결확인(Established)된 회선에 강제 리셋 요청. 연결상의 문제를 발견한 장비가 RST 플래그를 '1'로 설정한 TCP 세그먼트를 송출함.                                              LISTEN,SYN_RCVD 상태일 때: LISTEN 상태로 들어감.                                                                 그 밖의 상태일 때:  연결을 끊고 CLOSED 상태로 들어감.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP 헤더 연결의 시작을 요청.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission Control Protocol, 컴퓨터가 다른 컴퓨터와 데이터 통신을 하기 위한 규약(프로토콜)의 일종으로 전송계층(Transport Layer) 에서 사용,                                                                      1) 상대에게 통신을 하고 싶다는 메시지를 보낸다(SYN)                                                           [Client -&gt;Server] SYN [000010]                                                                                                        2) 상대는 그 메세지에 대한 응답+ 나도 통신 준비가 되었다는 메시지를 보낸다(SYN-ACK)                                                           [Server -&gt;Client] SYN/ACK [010010]                                                                                                 3) 2번에서 받은 메세지에 응답을 보낸다(ACK)                                                                         [Client -&gt;Server] ACK [010000]          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연결의 해제를 요청하는 플래그                                                                                                  TCP 4-way handshake가 사용됨                                                                                                1. [Client -&gt;Server] SYN [000010]                                                                                                2. [Server -&gt;Client] SYN [010000]                                                                                                          3. [Server -&gt;Client] FIN/ACK [010001]                                                                                                          4. [Client -&gt;Server] ACK [010000]                    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 개의 ICMP 패킷을 아주크게 만들어 전송, IP fragment 발생시켜 부하를 일으킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷 교환망에서 하나의 라우터에서 다른 라우터로 데이터 패킷이 이동한 길.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI 7계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Systems Interconnection Reference Model 7 Layer                                                            개방형 시스템 상호연결 참조모델 7계층                                                                                              국제 표준화 기구(ISO)에서 개발한 통신에 관한 계층화 표준 모델로 분산된 이기종 시스템간의 네트워크 상호호환을 위한 표준 아키텍쳐를 정의하고, 통신에 관련된 목적을 달성하기 위해 계층별로 분할하여 분업이 가능함(Divide and conquer).                                                                           기술 표준인 기존 TCP 4계층 모델이 계층별로 역할이 불명확하여 발생했던 문제들에대한 해답을 제시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 1 : 물리계층                  (Physical layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 2 : 데이터링크계층                  (Data link layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 3 : 네트워크계층                  (Network layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 4 : 전송계층                  (Transport layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 5 : 세션계층                  (Session layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 6 : 표현계층                  (Presentation layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 1 : 응용계층                  (Application layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적인 장치의 전기적,전자적 연결에 대한 명세, 디지털 데이터를 아날로그적인 전기적 신호로 변환하여 물리적인 전송을 가능하게 함. 주소의 개념이 없으며 물리적으로 연결된 노드간에 신호를 주고 받는다. 단위(PDU) : 비트(Bit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,10 +1426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -1403,928 +1471,1001 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="2" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="165" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="B67" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="B88" s="2" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B99" s="2" t="s">
+    </row>
+    <row r="104" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B121" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>227</v>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/9. Exam/정보보안기사/정보기.xlsx
+++ b/9. Exam/정보보안기사/정보기.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>IP Spooping</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>스위치 재밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위치에 주소테이블이 가득차게 되면 모든 네트워크 세그면트로 브로드캐스팅 하게 되어 공격자가 위조된 MAC주소를 지속적으로 네트워크에 내보냄으로써 스위칭 허브의 주소 테이블을 오버플로우 시켜 다른 네트워크 세그먼트의 데이터를 스니핑 할 수 있게 됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.0.0.0 ~ 10.255.255.255 (A 클래스 사설 IP 대역)                                                                     172.16.0.0 ~ 172.31.255.255(B 클래스 사설 IP 대역)                                                                    192.168.0.0 ~ 192.168.255.255(C 클래스 사설 IP 대역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 쉘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,14 +556,6 @@
   </si>
   <si>
     <t>Anomaly Detection, 이상탐지라고 하며 정상 행위와 비정상 행위를 프로파일링 하여 통계 및 AI를 이용하여 정상/비정상 구분. 통계적 분석,예측가능한패턴생성,신경망 모델, 전무간 시스템, 데이터 마이닝 등에 쓰이며 장단점으로는 패턴 자동 업데이트, 새로운패턴(제로데이 공격 등)을 탐지 가능하고, 오탐률이 높고 정상/비정상 기준 수립이 힘들다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDS 데이터 수집원에 의한 분류   - 네트워크 기반 IDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDS 데이터 수집원에 의한 분류   - 호스트 기반 IDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -816,10 +800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">NetWork Layer 에서 동작하는 보안 메커니즘.                                                                     ESP - 헤더의 기밀성을 제공하기 위해 사용                                                                                 AH프로토콜 - 메시지의 인증과 무결성을 위해 사용                                                                       IKE프로토콜 - SA를 협의하기위해 사용                                                                                 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어떤 네트워크 안에서 통신 데이터를 보낼 때 최적의 경로를 선택하는 프로세스를 말함.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,18 +928,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARP Redirect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스위칭 환경에서 스니핑 공격 유형 중 공격자가 "나의 MAC 주소가 라우터의 MAC 주소이다"라는 위조된 ARP Reply를 브로드캐스트로 네트웨크에 주기적으로 보내어 스위칭 네트워크상의 다른 모든 호스트들이 공격자 호스트를 라우터로 믿게 하는 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로컬에서 통신하고 있는 서버와 클라이언트 IP 주소에 대한 2계층 MAC주소를 공격자의 MAC 주소로 속여 클라이언트가 서버로 가는 패킷이나 서버에서 클라이언트로 가는 패킷을 중간에서 가로채는 공격을 말함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,11 +1016,247 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OSI -Layer 1 : 응용계층                  (Application layer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물리적인 장치의 전기적,전자적 연결에 대한 명세, 디지털 데이터를 아날로그적인 전기적 신호로 변환하여 물리적인 전송을 가능하게 함. 주소의 개념이 없으며 물리적으로 연결된 노드간에 신호를 주고 받는다. 단위(PDU) : 비트(Bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 노드간의 신뢰성 있는 데이터(단위 : 프레임) 전송을 제어(Nod-To-Nod Delivery).                      네트워크 카드의 MAC(Media Access Control)주소를 통해 목적지를 찾아감.                                          신뢰성 있는 전송 위해 흐름제어(Flow Control),오류제어(Error Control),회선제어(Line Control) 수행  논리링크제어계층,매체접근제어계층이라는 두 개의 부계층으로 나눔.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종단간 전송을 위한 경로 설정을 담당.(End-To-End 혹은 Host-To-Host Delivery)                                      호스트로 도달하기 위한 최적의 경로를 라우팅 알고리즘을 통해 선택하고 제어함.                                     종단간 전송을 위한 주소로 IP 주소를 사용함. 단위(PDU):패킷(Packet)                                        -주요 프로토콜 - IP,ARP,ICMP,RIP,RIPv2,OSPF,IGRP,EIGRP,BGP 등 -주요 장비 : 라우터(Router)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종단간 신뢰성 있는 데이터 전송을 담당(End-To-End Reliable Delivery)                                              종단(Host)의 구체적인 목적지(Process)까지 데이터가 도달할 수 있도록 한다.                             (Process-To-Process Communication)                                                                                      Process를 특정하기 위환 주소로 Port Number를 이용한다.                                                                                       신뢰성 있는 데이터 전송을 위해 분할과 재조합,연결제어,흐름제어,오류제어,혼잡제어를 수행함.
+단위(PDU) : 세그먼트(Segment) 주요 프로토콜 : TCP,UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 프로그램간의 논리적인 연결(세션) 생성 및 제어를 담당함. 
+단위(PDU) : 데이터(Data)또는 메시지(Message)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 표현방식, 상이한 부호체계 간의 변화에 대해 규정한다.
+인코딩/디코딩, 압축/해제, 암호화/복호화 등의 역할을 수행
+단위 : 데이터(Data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI -Layer 7 : 응용계층                  (Application layer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 : 데이터(Data) 
+주요 프로토콜 : TELNET , FTP , SMTP , HTTP 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부의 불법침입으로부터 내부의 정보자산을 보호하기 위한 정책과 하드/소프트웨어의 총칭.         네트워크상의 패킷을 미리 정해놓은 규칙에 따라 차단 또는 전달하는 기능의 하드/소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 종류 - 패킷필터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 종류 - 프록시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packet Filtering Firewall / 1세대 방화벽으로 전송 계층에서 동작함.
+내부망과 인터넷망 사이에 존재하여 특정 트래픽을 허용하거나 차단하는 가장 단순한 형태
+발신지 주소와 포트를 검사하여 수신 측의 주소와 포트에 대한 접속 허용 여부를 결정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proxy Firewall / 2세대 방화벽으로 응용 계층에서 동작함. 
+클라이언트와 외부 네트워크와의 중개인의 역할을 하며 이상이 없는 패킷만을 목적지로 전달함. 
+패킷 필터링보다 더 높은 수준의 보호능력을 제공하며 패킷 정보를 Application 계층까지 전체조사.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 종류 - 프록시
+응용 게이트웨이 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 종류 - 프록시
+서킷 게이트웨이 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Gateway / 7계층(응용) 계층에서 동작하여 각각의 서비스별로 Proxy 데몬이 존재함.
+외부에 대한 내부 망의 완벽한 구분
+내부의 IP주소를 숨기는 것이 가능하고, 데이터 부분의 제어에 따른 높은 로깅 및 감사 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circuit Gateway / OSI 세션계층과 응용 계층사이(6~7)에서 동작 
+서비스별 데몬이 존재하지 않고 공용 가능한 일반적인 Proxy가 존재함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 종류 - 상태기반 조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stateful Inspection / 3세대 방화벽으로 패킷 필터링과 응용게이트웨이 방식의 장점을 혼합. 
+패킷으로부터 받은 정보와 전송상태,연결상태,다른 application들과의 관계 검사. 
+연결의 시작부터 끝까지의 모든 활동을 모니터링하여 관리자가 정한 규칙을 기반으로 필터링 함. 
+모든 통신 레이어에서 분석하므로 모든 체널에 대해 추적이 가능함 
+사용자에게 투명성을 제공하고 UDP와 RPC패킷도 추적이 가능함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screening Router
+망과 망 사이에 라우터를 설치하고 라우터에 ACL을 구성함. 
+응용 프로그램 환경변화에 무관하게 동작하므로 투명한 구성이 가능함. 
+속도가 빠르지만 라우터에 부하를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 구성방식-
+스크리닝 라우터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 구성방식-
+배스천 호스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastion Host / Bastion은 '요새'라는 뜻으로 
+단일 홈드 게이트웨이 라고도 불림. 
+어플리케이션(응용,7)계층에서 동작하는 방화벽으로 
+방어기능을 가진 호스트 시스템이라고 함. 인증기능과 모니터링, 로깅 등의 기능이 있음. 
+베스천 호스트가 공격당하면 모든 내부 네트워크 자원이 보호받지 못함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 구성방식-
+듀얼 홈드 게이트웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dual Homed Gateway
+두 개의 네트워크 인터페이스를 가진 베스천 호스트를 이용한 구성으로 
+논리적으로만 구분하는 배스천 호스트에 비해서 물리적으로 구분되어있어 훨씬 안전함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 구성방식-
+스크린드 서브넷 게이트웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screened Subnet Gateway 
+스크리닝 라우터 2개 사이에 하나의 서브넷(망)을 구성하고 서브넷에 베스천 호스트 적용. 
+[스크리닝 라우터 -&gt; 배스천 호스트 서브넷 -&gt;스크리닝 라우터 -&gt;내부망] 순서로 접근함. 
+일반적으로 DMZ 구간을 운영하는 구축 형태에 해당하며 가장 안전하지만 가장 비싸고 가장 느림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 데이터 수집원에 의한 분류   - 호스트 기반 (HIDS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDS 데이터 수집원에 의한 분류   - 네트워크 기반 (NIDS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상 전 네트워크 세그먼트를 감시하는 전용의 시스템으로 대부분의 경우 방화벽 외부 네트워크 세그먼트나 내부의 주요 네트워크 세그먼트에 설치함. 
+네트워크기반 IDS는 네트워크상에 흘러다니는 모든 패킷들을 검사하여 할려진 공격들이나 
+의심스러운 행동에 대하여 분석하게 되고 호스트 기반 침입탐지 시스템과 달리 네트워크
+세그먼트를 감시하므로 효과적인 침임 담지 환경을 갖출 수 있고 보호하는 네트워크 서버들의
+호환성과 상관없이 기존 서비스의 중단 및 영향 없이 시스템을 구축할 수 있게 한다. 
+다만 네트워크상의 흘러다니는 모든 트래픽을 검사하므로 네트워크 트래픽 용량에 영향을 
+많이 받는 단점이 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일 호스트에 설치되어 해당 시스템의 감사 데이터를 사용해 침입을 탐지하는 시스템,
+대부분 해당 시스템의 파일들에 대한 무결성을 점검한다. 
+즉, 그 호스트의 중요한 파일이나 보안 관련 파일들이 수정되었는지 또는 
+임의의 사용자가 사용자 자신의 보안 수준을 넘는 파일들로 접근하려 시도했는지를 감지함.
+호스트 기반의 침임탐지 시스템은 해당 호스트에 설치되므로 시스템별로 호환성의 문제가 있고
+시스템 자원에 부하를 줄 수 있는 단점이 있으나 네트워크 환경에 구애받지 않는 장점이 있음.
+버퍼오버플로우 취약공격,권한 확대 취약공격, 디렉터리 검색 등이 탐지되어 처리됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NetWork Layer 에서 동작하는 보안 메커니즘.                                                                     ESP(Encapsulating Security Payload) - 헤더의 기밀성을 제공하기 위해 사용/ 암호화 기능 담당.                                                                                AH프로토콜 - 단말과 라우터 간IP 패킷에 대한 송신인증 및 무결성 서비스 제공                                                                       IKE프로토콜 - SA를 협의하기위해 사용                                                                                 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.0.0.0 ~ 10.255.255.255 (A 클래스 사설 IP 대역)                                                                     172.16.0.0 ~ 172.31.255.255(B 클래스 사설 IP 대역)                                                                    192.168.0.0 ~ 192.168.255.255(C 클래스 사설 IP 대역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 주소 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0.0 ~ 127.255.255.255(A 클래스 IP 주소 대역)
+128.0.0.0 ~ 191.255.255.255 (B 클래스 IP 주소 대역)
+192.0.0.0 ~ 223.255.255.255 (C 클래스 IP 주소 대역)
+224.0.0.0 ~ 239.255.255.255 (D 클래스 IP 주소 대역)
+240.0.0.0 ~ 255.255.255.255 (E 클래스 IP 주소 대역)
+• 클래스 A IP 주소는 정부 기관에서 사용합니다.
+• 클래스 B IP 주소는 중소기업에 할당됩니다.
+• 클래스 C IP 주소는 자유롭게 할당할 수 있습니다.
+• 클래스 D IP 주소는 멀티캐스트에 사용됩니다.
+• 클래스 E IP 주소는 실험용으로 예약되어 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS Spooping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS 캐시 포이즈닝, 
+변질된 도메인 네임 시스템 데이터가 DNS 캐시에 유입되어 네임 서버가 유효하지 않은 IP 주소를 반환하게 되고 이를 통해 공격자의 컴퓨터(또는 다른 컴퓨터)로 공격 우회가 가능함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP Redirect 
+(ARP 우회공격, ARP Broadcast)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위칭 환경에서 스니핑 공격 유형 중 공격자가 "나의 MAC 주소가 라우터의 MAC 주소이다"라는 위조된 ARP Reply를 브로드캐스트로 네트웨크에 주기적으로 보내어 스위칭 네트워크상의 다른 모든 호스트들이 공격자 호스트를 라우터로 믿게 하고 
+희생자의 ARP Chche Table 정보를 변조하여 스니핑.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP Redirect 중 거짓 패킷을 보내면 ARP Spooping이라고 함. 
+1. 공격자 맥 주소로 위장한 ARP Replay 또는 Request 패킷을 네트워크에 뿌림. 
+2. 두 호스트는 자신의 ARP Chche를 업데이트(ARP Cache Poisoning) 하여 모든 트래픽 스니핑이 가능해 짐. 
+3. 넘어오는 트래픽을 본래의 호스트로 relay 해주어 스니핑을 지속함.
+C.f ICMP Redirect : 희생자의 라우팅 테이블을 변조하여 스니핑하는 경우.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치에 주소테이블이 가득차게 되면 모든 네트워크 세그면트로 브로드캐스팅 하게 되어 공격자가 위조된 MAC주소를 지속적으로 네트워크에 내보냄으로써 스위칭 허브의 주소 테이블을 오버플로우 시켜 다른 네트워크 세그먼트의 데이터를 스니핑 할 수 있게 됨
+MAC 테이블을 위한 캐시 공간에 버퍼 오버플로우 공격을 실시하는것과 같음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방화벽 구성방식-
+스크린드 호스트 게이트웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screened Host Gateway
+스크리닝 라우터와 배스천호스트의 혼합구성. 
+네트워크,트랜스포트(3,4) 계층에서 스크리닝 라우터가 1차로 필터링하고 
+어플리케이션(7) 계층에서 2차로 베스천 호스트가 방어하는 구조. 가장 많이 이용됨
+시스템 구축비용이 많이 들며 정보지향적인 공격에 취약함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1426,10 +1630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1449,127 +1653,127 @@
     </row>
     <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="132" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>20</v>
@@ -1577,66 +1781,66 @@
     </row>
     <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1644,297 +1848,297 @@
         <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="2" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B55" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>107</v>
@@ -1942,530 +2146,658 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="165" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="2" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="95" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    </row>
+    <row r="96" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="2" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+      <c r="B109" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B115" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="99" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B118" s="2" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="B124" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B132" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B126" s="2" t="s">
+      <c r="B133" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>253</v>
+    <row r="136" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/9. Exam/정보보안기사/정보기.xlsx
+++ b/9. Exam/정보보안기사/정보기.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>IP Spooping</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>보낼 데이터가 남아있는가? 0 = false , 1 = true 남아있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Traceroute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1257,6 +1253,25 @@
 네트워크,트랜스포트(3,4) 계층에서 스크리닝 라우터가 1차로 필터링하고 
 어플리케이션(7) 계층에서 2차로 베스천 호스트가 방어하는 구조. 가장 많이 이용됨
 시스템 구축비용이 많이 들며 정보지향적인 공격에 취약함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버퍼 오버플로우의 대책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Non-Executable 스택 사용 : 실행권한이 없는 단어. 코드를 써 넣어도 실행권한이 없게 만듬.
+2. 스택 가드(Stack Guard) 또는 스택 쉴드(Stack Shield) 사용 : 메모리 내에 존재하는 스택 공간에 공격자가 침범시에 그것을 인식하고 방호하는 방식 
+3. ASLR(Address Space Layout Randomization) 사용 : 
+randomize -va -space (0,1,2) 
+프로그램이 시작될 때 메모리 내의 주소를 변화시켜 오버플로우를 막는 방식. 
+0 : 메모리 주소 고정 
+1 : stack 메모리 공간 주소를 동적으로 설정 
+2 : stack,hip 메모리 공간 주소를 동적으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traceroute - ICMP도구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1630,10 +1645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1653,10 +1668,10 @@
     </row>
     <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -1664,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -1672,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1685,18 +1700,18 @@
     </row>
     <row r="6" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1725,10 +1740,10 @@
     </row>
     <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1736,7 +1751,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1744,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1752,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -1760,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -1768,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1805,999 +1820,1007 @@
     </row>
     <row r="21" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="132" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="99" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>272</v>
+    </row>
+    <row r="146" spans="1:2" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
